--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1171189.630450899</v>
+        <v>1165060.873399461</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10853567.12155336</v>
+        <v>11110000.09323701</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>219.0575315345307</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>162.9670767937837</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.55303430533229</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>39.67788952565829</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>75.49088380154294</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.20096331013591</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>125.1730094486624</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>405.3232974734221</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>137.5019079254872</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542834</v>
       </c>
       <c r="H10" t="n">
-        <v>39.35742000647711</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>113.9797665655254</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>328.0423659626492</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>90.14863908058086</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.87204320893713</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.02919805176216</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1855.428721271371</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1855.428721271371</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2273.026912044016</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1941.964024700445</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1589.195369430331</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.428721271371</v>
+        <v>1589.195369430331</v>
       </c>
       <c r="Y2" t="n">
-        <v>1855.428721271371</v>
+        <v>1589.195369430331</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>1381.76163186861</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>1160.96905272508</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918.0161179218655</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C5" t="n">
-        <v>918.0161179218655</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>918.0161179218655</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>918.0161179218655</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>507.030213132258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>91.32546285654684</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>91.32546285654684</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218655</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y5" t="n">
-        <v>918.0161179218655</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.4631083446099</v>
+        <v>624.8936537153462</v>
       </c>
       <c r="C7" t="n">
-        <v>342.4631083446099</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D7" t="n">
-        <v>342.4631083446099</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>342.4631083446099</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>342.4631083446099</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>174.4766436528884</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1510.00873679302</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1510.00873679302</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>1255.324248587133</v>
       </c>
       <c r="W7" t="n">
-        <v>570.4526592426272</v>
+        <v>1255.324248587133</v>
       </c>
       <c r="X7" t="n">
-        <v>342.4631083446099</v>
+        <v>1027.334697689116</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.4631083446099</v>
+        <v>806.5421185455859</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2051.040280862504</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="C8" t="n">
-        <v>1682.077763922093</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.812065315342</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>938.0238127170981</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F8" t="n">
-        <v>527.0379079274906</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4837,19 +4837,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2298.749304840276</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2298.749304840276</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2298.749304840276</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>2298.749304840276</v>
       </c>
       <c r="Y8" t="n">
-        <v>2437.640120926626</v>
+        <v>1908.609972864464</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505111</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.8047973518188</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>385.8047973518188</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>385.8047973518188</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>237.8917037694257</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>91.00175627151535</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>91.00175627151535</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800312</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323095</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>606.597376495349</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>606.597376495349</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.8047973518188</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1418.660964416652</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1049.69844747624</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1049.69844747624</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1049.69844747624</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>638.7125426866328</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>223.6400925316293</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416652</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836216</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836216</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0249360836216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1921.870414581995</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1552.907897641583</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.642199034832</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>808.8539464365881</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>397.8680416469805</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883008</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3072.075344883008</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3072.075344883008</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>2698.609586621928</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2308.470254646116</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1007.446783179745</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>838.5106002518381</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>688.3939608395024</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>540.4808672571093</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>393.5909197591989</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>225.8880831339178</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1637.877378051532</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1409.887827153515</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1189.095248009985</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372932</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>853.5941094450255</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>703.4774700326898</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>555.5643764502967</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>408.6744289523863</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346702</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203172</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3173.601046153952</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>119.599202296584</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.8461362382112</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9099533103043</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>322.7933138979686</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.4946010684509</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558404</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630497</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>2561.485266376192</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>2561.485266376192</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376192</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532174</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388644</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,10 +7447,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.9556134883072218</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019043</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>154.0169020165185</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>180.627997821795</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>21.59472895491427</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>82.87935969080428</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.32522828944182</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>75.37549921168798</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.7126101431577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5862749664502</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808052.5661967993</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808052.5661967994</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26334,13 +26334,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
@@ -26349,7 +26349,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598199</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341517</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545131</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042245</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042245</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26450,7 +26450,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868704.401890546</v>
+        <v>-868704.4018905459</v>
       </c>
       <c r="C6" t="n">
-        <v>246047.3816853738</v>
+        <v>246047.381685374</v>
       </c>
       <c r="D6" t="n">
-        <v>246047.3816853739</v>
+        <v>246047.381685374</v>
       </c>
       <c r="E6" t="n">
-        <v>128436.7161959329</v>
+        <v>-152353.4243427759</v>
       </c>
       <c r="F6" t="n">
-        <v>310509.6960131235</v>
+        <v>355132.0172817701</v>
       </c>
       <c r="G6" t="n">
-        <v>45636.36307630708</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="H6" t="n">
-        <v>355479.3965361269</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="I6" t="n">
-        <v>355479.3965361269</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="J6" t="n">
-        <v>187874.2187261443</v>
+        <v>187526.8394717873</v>
       </c>
       <c r="K6" t="n">
-        <v>355479.396536127</v>
+        <v>355132.0172817698</v>
       </c>
       <c r="L6" t="n">
-        <v>355479.3965361269</v>
+        <v>355132.01728177</v>
       </c>
       <c r="M6" t="n">
-        <v>307927.1307427116</v>
+        <v>222524.7235528433</v>
       </c>
       <c r="N6" t="n">
-        <v>355479.3965361272</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="O6" t="n">
-        <v>273343.5659406756</v>
+        <v>355132.0172817699</v>
       </c>
       <c r="P6" t="n">
-        <v>355479.396536127</v>
+        <v>355132.0172817699</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>135.6255100861522</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>88.07817333467833</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.278945876605</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>26.03202314681218</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>175.5543663269191</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>130.0505458449929</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>95.57568654854953</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.224405299531895</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>113.5433422029748</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="H10" t="n">
-        <v>107.8940891486517</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,22 +28061,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>308.1572428165614</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>392.1527130811811</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254367</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>520.9482342985591</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>165.5609983721169</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165060.873399461</v>
+        <v>1168215.792741683</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11110000.09323701</v>
+        <v>10853567.12155336</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>398.1101809314188</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>162.9670767937837</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.98074812542835</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>176.2232175180733</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>75.49088380154294</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>125.1730094486624</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>137.5019079254872</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156799</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542834</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>45.23443023079826</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.32649042089713</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>92.09843453981404</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>262.234929664971</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.92847288552853</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>206.5512581543057</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>94.80184639741398</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>174.9868265178721</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060384</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>100.2041656279965</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1202.59552936621</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.59552936621</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2273.026912044016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1941.964024700445</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1589.195369430331</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1589.195369430331</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1589.195369430331</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657496</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378427</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255069</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431138</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>102.7424917452035</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2361.386702945269</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>1462.32788798028</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1104.062189373529</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>718.2739367752852</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>307.2880319856776</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>295.6236857503706</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2361.386702945269</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2361.386702945269</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2361.386702945269</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X5" t="n">
-        <v>2361.386702945269</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y5" t="n">
-        <v>2361.386702945269</v>
+        <v>1831.290404920692</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.8936537153462</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1510.00873679302</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1510.00873679302</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1255.324248587133</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1255.324248587133</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1027.334697689116</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.5421185455859</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522.010132800342</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4819,10 +4819,10 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2298.749304840276</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2298.749304840276</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2298.749304840276</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2298.749304840276</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1908.609972864464</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1682.315766249262</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1324.050067642512</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>938.2618150442675</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>527.2759102546599</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>112.2034600996564</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>305.7580249717136</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1813.303537713132</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1455.037839106382</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1835.869149758807</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>801.6918836311999</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>983.3403484614396</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,25 +6837,25 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7180,22 +7180,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>195.03299196514</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,28 +7636,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9556134883072218</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.3733341565222</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.5054897610402</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>73.92737371921419</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>119.6954404072908</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>125.5054897610406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>79.63321623493849</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.44497470121385</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.31997266427236</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>955106.6382508927</v>
+        <v>808052.5661967993</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955106.6382508927</v>
+        <v>808052.5661967994</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>464109.2948217535</v>
+      </c>
+      <c r="K2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="J2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.177809983</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545147</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26478,10 +26478,10 @@
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868704.4018905459</v>
+        <v>-868704.4018905461</v>
       </c>
       <c r="C6" t="n">
-        <v>246047.381685374</v>
+        <v>246047.3816853739</v>
       </c>
       <c r="D6" t="n">
-        <v>246047.381685374</v>
+        <v>246047.3816853738</v>
       </c>
       <c r="E6" t="n">
-        <v>-152353.4243427759</v>
+        <v>128089.0972661269</v>
       </c>
       <c r="F6" t="n">
-        <v>355132.0172817701</v>
+        <v>310162.0770833172</v>
       </c>
       <c r="G6" t="n">
-        <v>355132.0172817699</v>
+        <v>45601.62515087133</v>
       </c>
       <c r="H6" t="n">
-        <v>355132.0172817699</v>
+        <v>355444.6586106911</v>
       </c>
       <c r="I6" t="n">
-        <v>355132.0172817699</v>
+        <v>355444.6586106913</v>
       </c>
       <c r="J6" t="n">
-        <v>187526.8394717873</v>
+        <v>187839.480800708</v>
       </c>
       <c r="K6" t="n">
-        <v>355132.0172817698</v>
+        <v>355444.6586106915</v>
       </c>
       <c r="L6" t="n">
-        <v>355132.01728177</v>
+        <v>355444.6586106911</v>
       </c>
       <c r="M6" t="n">
-        <v>222524.7235528433</v>
+        <v>307892.3928172761</v>
       </c>
       <c r="N6" t="n">
-        <v>355132.0172817699</v>
+        <v>355444.6586106912</v>
       </c>
       <c r="O6" t="n">
-        <v>355132.0172817699</v>
+        <v>273308.8280152399</v>
       </c>
       <c r="P6" t="n">
-        <v>355132.0172817699</v>
+        <v>355444.6586106911</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>8.765864810292612</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>88.07817333467833</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3258519193758</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>49.55154957999665</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>124.7953350443321</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>175.5543663269191</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>95.57568654854953</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>113.5433422029748</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627891</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193759</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,19 +34786,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N3" t="n">
-        <v>392.1527130811811</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820405</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>436.2707275254364</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
